--- a/biology/Médecine/Hermann_Becker-Freyseng/Hermann_Becker-Freyseng.xlsx
+++ b/biology/Médecine/Hermann_Becker-Freyseng/Hermann_Becker-Freyseng.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Becker-Freyseng, né le 18 juillet 1910 à Ludwigshafen et mort le 27 août 1961 à  Heidelberg, est un médecin allemand et consultant en médecine aéronautique pour la Luftwaffe pendant le Troisième Reich. Becker-Freyseng est l'un des condamnés au Procès des médecins.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il devient physicien à l'Université de Berlin en 1935. En 1936, il devient membre du parti nazi et travaille comme médecin capitaine. Il travaille au camp de Dachau à des essais d'eau de mer distillée[1].
-Au Procès des médecins, il est condamné à 20 ans de prison pour crimes de guerre et crimes contre l'humanité. Toutefois, en 1946, le nom de Becker-Freyseng fait partie d'une liste des vingt personnes rétablie par Harry George Armstrong, il est envoyé aux États-Unis pour travailler au développement de la médecine spatiale américaine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il devient physicien à l'Université de Berlin en 1935. En 1936, il devient membre du parti nazi et travaille comme médecin capitaine. Il travaille au camp de Dachau à des essais d'eau de mer distillée.
+Au Procès des médecins, il est condamné à 20 ans de prison pour crimes de guerre et crimes contre l'humanité. Toutefois, en 1946, le nom de Becker-Freyseng fait partie d'une liste des vingt personnes rétablie par Harry George Armstrong, il est envoyé aux États-Unis pour travailler au développement de la médecine spatiale américaine.
 </t>
         </is>
       </c>
